--- a/docs/data/Porcino CLM 2019/porcino +2000.xlsx
+++ b/docs/data/Porcino CLM 2019/porcino +2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\KCL\Thesis\R\Website\Fighting_for_our_lives_MA_Thesis\data\Porcino CLM 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\Ecologia Politica\ecologia politica paper\Página web\luchando_contra_futuras_zoonosis\data\Porcino CLM 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3811EA-DE3B-42FD-8A09-B24E97411D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF08E000-E1BD-41F3-B3FF-087A181A2718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,16 +540,16 @@
     <t>YUNCLILLOS</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Municipality</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>Animals</t>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Orientación</t>
+  </si>
+  <si>
+    <t>Animales</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
